--- a/scripts/shstrophies/data/Mr Torren_s initial data input/Spring Awards/Track.xlsx
+++ b/scripts/shstrophies/data/Mr Torren_s initial data input/Spring Awards/Track.xlsx
@@ -40,39 +40,39 @@
     <t>Outstanding Freshman</t>
   </si>
   <si>
+    <t>image URL</t>
+  </si>
+  <si>
     <t>Most Valuable</t>
   </si>
   <si>
-    <t>image URL</t>
+    <t>Outstanding Frosh</t>
+  </si>
+  <si>
+    <t>Outstanding Track</t>
+  </si>
+  <si>
+    <t>Falcon Award</t>
+  </si>
+  <si>
+    <t>Coaches Award</t>
+  </si>
+  <si>
+    <t>Coaches Award (Falcon Award)</t>
+  </si>
+  <si>
+    <t>Scholar/Athlete</t>
   </si>
   <si>
     <t>DEFAULT IMAGE</t>
   </si>
   <si>
-    <t>Outstanding Track</t>
-  </si>
-  <si>
-    <t>Falcon Award</t>
-  </si>
-  <si>
-    <t>Coaches Award</t>
-  </si>
-  <si>
-    <t>Scholar/Athlete</t>
+    <t>MVP</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1Z6Nht08V5UZdnIKCO36MhrM7yHtK0aJC/view</t>
   </si>
   <si>
-    <t>MVP</t>
-  </si>
-  <si>
-    <t>Outstanding Frosh</t>
-  </si>
-  <si>
-    <t>Coaches Award (Falcon Award)</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1j9mQtEi3CEhtD42a68B7_0fJFjkYSqMG/view</t>
   </si>
   <si>
@@ -82,85 +82,214 @@
     <t>Kyle Fukui</t>
   </si>
   <si>
+    <t>2008/2009</t>
+  </si>
+  <si>
+    <t>2009/2010</t>
+  </si>
+  <si>
+    <t>Bryson Yates</t>
+  </si>
+  <si>
+    <t>Tyler Bakke</t>
+  </si>
+  <si>
+    <t>Myron Zhang</t>
+  </si>
+  <si>
+    <t>Brandon Oliver Conner</t>
+  </si>
+  <si>
+    <t>2010/2011</t>
+  </si>
+  <si>
+    <t>Paul Jung</t>
+  </si>
+  <si>
+    <t>Jerrick Fong</t>
+  </si>
+  <si>
+    <t>Ben Glasstone</t>
+  </si>
+  <si>
+    <t>Will Guy</t>
+  </si>
+  <si>
+    <t>2011/2012</t>
+  </si>
+  <si>
+    <t>Brian Chu</t>
+  </si>
+  <si>
+    <t>Drew Bryan</t>
+  </si>
+  <si>
+    <t>Clark Wang</t>
+  </si>
+  <si>
+    <t>David McLellan</t>
+  </si>
+  <si>
+    <t>Austin Du</t>
+  </si>
+  <si>
+    <t>Aurash Jalaian</t>
+  </si>
+  <si>
+    <t>2012/2013</t>
+  </si>
+  <si>
+    <t>Anthony Holt</t>
+  </si>
+  <si>
+    <t>Michael Chyan</t>
+  </si>
+  <si>
+    <t>Kevin Duong-Le</t>
+  </si>
+  <si>
+    <t>Tanner Zuleeg</t>
+  </si>
+  <si>
+    <t>Andrew Harter</t>
+  </si>
+  <si>
+    <t>2013/2014</t>
+  </si>
+  <si>
+    <t>Vincent Faylor</t>
+  </si>
+  <si>
+    <t>2014/2015</t>
+  </si>
+  <si>
+    <t>Jaijit Singh</t>
+  </si>
+  <si>
+    <t>Eric Wang</t>
+  </si>
+  <si>
+    <t>Brite Wang</t>
+  </si>
+  <si>
+    <t>Clifford Yin</t>
+  </si>
+  <si>
+    <t>2015/2016</t>
+  </si>
+  <si>
+    <t>2016/2017</t>
+  </si>
+  <si>
+    <t>2017/2018</t>
+  </si>
+  <si>
+    <t>2018/2019</t>
+  </si>
+  <si>
+    <t>1976/1977</t>
+  </si>
+  <si>
+    <t>Peggy Jordan</t>
+  </si>
+  <si>
+    <t>Diana Figliomeni</t>
+  </si>
+  <si>
+    <t>1977/1978</t>
+  </si>
+  <si>
+    <t>Lori Allderdice</t>
+  </si>
+  <si>
     <t>https://drive.google.com/file/d/1rDXG8bzHG0ECOkcyIsAzGeXJuWsgk04N/view</t>
   </si>
   <si>
-    <t>2008/2009</t>
-  </si>
-  <si>
-    <t>2009/2010</t>
-  </si>
-  <si>
-    <t>Bryson Yates</t>
-  </si>
-  <si>
-    <t>Tyler Bakke</t>
-  </si>
-  <si>
-    <t>Myron Zhang</t>
-  </si>
-  <si>
-    <t>1976/1977</t>
+    <t>1978/1979</t>
+  </si>
+  <si>
+    <t>Kathy Reimann</t>
+  </si>
+  <si>
+    <t>1979/1980</t>
+  </si>
+  <si>
+    <t>Liz Chewning</t>
+  </si>
+  <si>
+    <t>Kathy Reimmann</t>
+  </si>
+  <si>
+    <t>1980/1981</t>
+  </si>
+  <si>
+    <t>1981/1982</t>
+  </si>
+  <si>
+    <t>1982/1983</t>
+  </si>
+  <si>
+    <t>Pam Turriff</t>
+  </si>
+  <si>
+    <t>1983/1984</t>
+  </si>
+  <si>
+    <t>Connie Buckler</t>
+  </si>
+  <si>
+    <t>1984/1985</t>
+  </si>
+  <si>
+    <t>Heidi Stark</t>
+  </si>
+  <si>
+    <t>1985/1986</t>
+  </si>
+  <si>
+    <t>Hedi Stark</t>
+  </si>
+  <si>
+    <t>1986/1987</t>
+  </si>
+  <si>
+    <t>Meka Dunivin</t>
+  </si>
+  <si>
+    <t>1987/1988</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1EUCci-dlb8y58JodK-PAt0TglF6TDJQV/view</t>
   </si>
   <si>
-    <t>Brandon Oliver Conner</t>
-  </si>
-  <si>
-    <t>Peggy Jordan</t>
-  </si>
-  <si>
-    <t>2010/2011</t>
-  </si>
-  <si>
-    <t>Paul Jung</t>
-  </si>
-  <si>
-    <t>Diana Figliomeni</t>
-  </si>
-  <si>
-    <t>Jerrick Fong</t>
-  </si>
-  <si>
-    <t>Ben Glasstone</t>
-  </si>
-  <si>
-    <t>Will Guy</t>
-  </si>
-  <si>
-    <t>2011/2012</t>
-  </si>
-  <si>
-    <t>1977/1978</t>
-  </si>
-  <si>
-    <t>Brian Chu</t>
-  </si>
-  <si>
-    <t>Drew Bryan</t>
-  </si>
-  <si>
-    <t>Lori Allderdice</t>
-  </si>
-  <si>
-    <t>Clark Wang</t>
-  </si>
-  <si>
-    <t>David McLellan</t>
-  </si>
-  <si>
-    <t>Austin Du</t>
-  </si>
-  <si>
-    <t>Aurash Jalaian</t>
-  </si>
-  <si>
-    <t>1978/1979</t>
-  </si>
-  <si>
-    <t>Kathy Reimann</t>
+    <t>1988/1989</t>
+  </si>
+  <si>
+    <t>1989/1990</t>
+  </si>
+  <si>
+    <t>Yvonne Lavallee</t>
+  </si>
+  <si>
+    <t>1990/1991</t>
+  </si>
+  <si>
+    <t>Lara Hurant</t>
+  </si>
+  <si>
+    <t>1991/1992</t>
+  </si>
+  <si>
+    <t>Anita Engelman</t>
+  </si>
+  <si>
+    <t>1992/1993</t>
+  </si>
+  <si>
+    <t>1993/1994</t>
+  </si>
+  <si>
+    <t>1994/1995</t>
   </si>
   <si>
     <t>1967/1968</t>
@@ -169,94 +298,61 @@
     <t>Chip Hough</t>
   </si>
   <si>
+    <t>Maggie Ricketts</t>
+  </si>
+  <si>
     <t>1968/1969</t>
   </si>
   <si>
-    <t>2012/2013</t>
-  </si>
-  <si>
-    <t>Anthony Holt</t>
-  </si>
-  <si>
-    <t>Michael Chyan</t>
-  </si>
-  <si>
-    <t>1979/1980</t>
-  </si>
-  <si>
-    <t>Liz Chewning</t>
-  </si>
-  <si>
-    <t>Kevin Duong-Le</t>
-  </si>
-  <si>
     <t>1969/1970</t>
   </si>
   <si>
-    <t>Tanner Zuleeg</t>
+    <t>1995/1996</t>
   </si>
   <si>
     <t>Mike Tyrrell</t>
   </si>
   <si>
+    <t>Jill Moon</t>
+  </si>
+  <si>
     <t>1970/1971</t>
   </si>
   <si>
-    <t>Kathy Reimmann</t>
-  </si>
-  <si>
-    <t>Andrew Harter</t>
-  </si>
-  <si>
     <t>1971/1972</t>
   </si>
   <si>
+    <t>Anne Ricketts</t>
+  </si>
+  <si>
     <t>Larry Lynch</t>
   </si>
   <si>
     <t>1972/1973</t>
   </si>
   <si>
-    <t>1980/1981</t>
-  </si>
-  <si>
-    <t>2013/2014</t>
-  </si>
-  <si>
     <t>1973/1974</t>
   </si>
   <si>
-    <t>Vincent Faylor</t>
+    <t>1996/1997</t>
   </si>
   <si>
     <t>Craig Sullivan</t>
   </si>
   <si>
+    <t>Taylor Teerlink</t>
+  </si>
+  <si>
     <t>1974/1975</t>
   </si>
   <si>
     <t>Jake Bowman</t>
   </si>
   <si>
-    <t>2014/2015</t>
-  </si>
-  <si>
-    <t>1981/1982</t>
-  </si>
-  <si>
     <t>Blair Goodrow</t>
   </si>
   <si>
-    <t>Jaijit Singh</t>
-  </si>
-  <si>
-    <t>Eric Wang</t>
-  </si>
-  <si>
-    <t>Brite Wang</t>
-  </si>
-  <si>
-    <t>Clifford Yin</t>
+    <t>1997/1998</t>
   </si>
   <si>
     <t>1975/1976</t>
@@ -265,16 +361,10 @@
     <t>Mike Dyer</t>
   </si>
   <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
-    <t>1982/1983</t>
-  </si>
-  <si>
     <t>John Berry</t>
   </si>
   <si>
-    <t>Pam Turriff</t>
+    <t>1998/1999</t>
   </si>
   <si>
     <t>Steve Bruns</t>
@@ -283,42 +373,21 @@
     <t>Jeff Watkins</t>
   </si>
   <si>
-    <t>2016/2017</t>
-  </si>
-  <si>
-    <t>2017/2018</t>
-  </si>
-  <si>
     <t>Martin Rohe</t>
   </si>
   <si>
-    <t>2018/2019</t>
-  </si>
-  <si>
     <t>Dave Dunlap</t>
   </si>
   <si>
-    <t>1983/1984</t>
-  </si>
-  <si>
     <t>Mike Joe</t>
   </si>
   <si>
-    <t>Connie Buckler</t>
-  </si>
-  <si>
     <t>Mark Gyorey</t>
   </si>
   <si>
     <t>Ed Healy</t>
   </si>
   <si>
-    <t>1984/1985</t>
-  </si>
-  <si>
-    <t>Heidi Stark</t>
-  </si>
-  <si>
     <t>Glenn Chen</t>
   </si>
   <si>
@@ -328,45 +397,48 @@
     <t>Thad Whalen</t>
   </si>
   <si>
-    <t>1985/1986</t>
-  </si>
-  <si>
     <t>Rusty Schaffer</t>
   </si>
   <si>
-    <t>Hedi Stark</t>
-  </si>
-  <si>
     <t>Jeff Foster</t>
   </si>
   <si>
     <t>Eugene Tung</t>
   </si>
   <si>
+    <t>1999/2000</t>
+  </si>
+  <si>
     <t>Mike Kibort</t>
   </si>
   <si>
     <t>Gary Wilberding</t>
   </si>
   <si>
-    <t>1986/1987</t>
-  </si>
-  <si>
     <t>Steve Fisher</t>
   </si>
   <si>
     <t>Scott Sutter</t>
   </si>
   <si>
+    <t>2000/2001</t>
+  </si>
+  <si>
     <t>Doug Golliher</t>
   </si>
   <si>
     <t>George Bassettt</t>
   </si>
   <si>
+    <t>Eevi-Sofia Aura</t>
+  </si>
+  <si>
     <t>Barry Politi</t>
   </si>
   <si>
+    <t>2001/2002</t>
+  </si>
+  <si>
     <t>Dave Lambert</t>
   </si>
   <si>
@@ -376,13 +448,25 @@
     <t>Greg Lipton</t>
   </si>
   <si>
+    <t>Alicia Follmar</t>
+  </si>
+  <si>
     <t>Curtis Kanazawa</t>
   </si>
   <si>
-    <t>Meka Dunivin</t>
-  </si>
-  <si>
-    <t>1987/1988</t>
+    <t>2002/2003</t>
+  </si>
+  <si>
+    <t>2003/2004</t>
+  </si>
+  <si>
+    <t>2004/2005</t>
+  </si>
+  <si>
+    <t>2005/2006</t>
+  </si>
+  <si>
+    <t>Nicole Sabes</t>
   </si>
   <si>
     <t>Jason Krumwiede</t>
@@ -397,7 +481,7 @@
     <t>David Brittain</t>
   </si>
   <si>
-    <t>1988/1989</t>
+    <t>Rachel Sabes</t>
   </si>
   <si>
     <t>Alex Pista</t>
@@ -412,6 +496,9 @@
     <t>Greg Rogers</t>
   </si>
   <si>
+    <t>2006/2007</t>
+  </si>
+  <si>
     <t>James Wild</t>
   </si>
   <si>
@@ -421,42 +508,15 @@
     <t>Matt Peterson</t>
   </si>
   <si>
-    <t>1989/1990</t>
-  </si>
-  <si>
     <t>Brent Hedgepeth</t>
   </si>
   <si>
-    <t>Yvonne Lavallee</t>
-  </si>
-  <si>
-    <t>1990/1991</t>
-  </si>
-  <si>
-    <t>Lara Hurant</t>
-  </si>
-  <si>
-    <t>1991/1992</t>
-  </si>
-  <si>
-    <t>Anita Engelman</t>
-  </si>
-  <si>
-    <t>1992/1993</t>
-  </si>
-  <si>
-    <t>1993/1994</t>
-  </si>
-  <si>
     <t>Robert Ridolfo</t>
   </si>
   <si>
     <t>Chris Byrer</t>
   </si>
   <si>
-    <t>1994/1995</t>
-  </si>
-  <si>
     <t>Tada Petrys</t>
   </si>
   <si>
@@ -469,30 +529,18 @@
     <t>Nick Bernardo</t>
   </si>
   <si>
-    <t>Maggie Ricketts</t>
-  </si>
-  <si>
     <t>Ara Hamamjian</t>
   </si>
   <si>
     <t>Eric Tam</t>
   </si>
   <si>
-    <t>1995/1996</t>
-  </si>
-  <si>
-    <t>Jill Moon</t>
-  </si>
-  <si>
     <t>Jon Chin</t>
   </si>
   <si>
     <t>Dan Svalya</t>
   </si>
   <si>
-    <t>Anne Ricketts</t>
-  </si>
-  <si>
     <t>David Masiello</t>
   </si>
   <si>
@@ -505,42 +553,54 @@
     <t>Eric Jackson</t>
   </si>
   <si>
-    <t>1996/1997</t>
+    <t>Ailene Nguyen</t>
+  </si>
+  <si>
+    <t>Danielle Conway</t>
+  </si>
+  <si>
+    <t>Karen Wai</t>
   </si>
   <si>
     <t>Kevin Ho</t>
   </si>
   <si>
-    <t>Taylor Teerlink</t>
+    <t>Courtney Schlossareck</t>
   </si>
   <si>
     <t>Mike Chapin</t>
   </si>
   <si>
+    <t>Karen Wei</t>
+  </si>
+  <si>
     <t>Mark Marshall</t>
   </si>
   <si>
-    <t>1997/1998</t>
+    <t>Crystal Yen</t>
   </si>
   <si>
     <t>Wesley Tanner</t>
   </si>
   <si>
+    <t>Michelle Cummins</t>
+  </si>
+  <si>
     <t>Hank Nothraft</t>
   </si>
   <si>
+    <t>Melodie Bellegarda</t>
+  </si>
+  <si>
     <t>David Yu</t>
   </si>
   <si>
-    <t>1998/1999</t>
+    <t>Maya Nag</t>
   </si>
   <si>
     <t>Alex Shoor</t>
   </si>
   <si>
-    <t>1999/2000</t>
-  </si>
-  <si>
     <t>Brian Carroll</t>
   </si>
   <si>
@@ -550,33 +610,45 @@
     <t>Jeff Beyers</t>
   </si>
   <si>
+    <t>Elaine Chou</t>
+  </si>
+  <si>
     <t>Jeff Verson</t>
   </si>
   <si>
-    <t>2000/2001</t>
-  </si>
-  <si>
-    <t>Eevi-Sofia Aura</t>
+    <t>Hannah Johnson</t>
   </si>
   <si>
     <t>Alex Lux</t>
   </si>
   <si>
+    <t>Katherine Cummins</t>
+  </si>
+  <si>
     <t>Michael Black</t>
   </si>
   <si>
     <t>Chad Allen</t>
   </si>
   <si>
-    <t>2001/2002</t>
-  </si>
-  <si>
     <t>Mendel Chuang</t>
   </si>
   <si>
+    <t>Jennifer Jin</t>
+  </si>
+  <si>
     <t>David Cheng</t>
   </si>
   <si>
+    <t>Puck de Roos</t>
+  </si>
+  <si>
+    <t>Kimberly Chen</t>
+  </si>
+  <si>
+    <t>Katie Davenport</t>
+  </si>
+  <si>
     <t>Alex Daniels</t>
   </si>
   <si>
@@ -586,7 +658,7 @@
     <t>Eric Giannella</t>
   </si>
   <si>
-    <t>Alicia Follmar</t>
+    <t>Julia Lee</t>
   </si>
   <si>
     <t>Richard La</t>
@@ -595,7 +667,10 @@
     <t>Ian Jang</t>
   </si>
   <si>
-    <t>2002/2003</t>
+    <t>Laura Cummins</t>
+  </si>
+  <si>
+    <t>Avery Gigoux</t>
   </si>
   <si>
     <t>Jim Cummins</t>
@@ -604,34 +679,46 @@
     <t>Jesse Alejandro</t>
   </si>
   <si>
+    <t>Lauren M. Lin</t>
+  </si>
+  <si>
     <t>Tomo Mori</t>
   </si>
   <si>
+    <t>Julia Sakamoto</t>
+  </si>
+  <si>
     <t>Alexi Sevastopoulos</t>
   </si>
   <si>
-    <t>2003/2004</t>
-  </si>
-  <si>
     <t>Frank Lee</t>
   </si>
   <si>
     <t>Conway Teng</t>
   </si>
   <si>
+    <t>Riley Carter</t>
+  </si>
+  <si>
     <t>Mark Elfving</t>
   </si>
   <si>
+    <t>Kimberly chen</t>
+  </si>
+  <si>
     <t>William Kraemer</t>
   </si>
   <si>
+    <t>Preethi Ravi</t>
+  </si>
+  <si>
     <t>Steven Hwang</t>
   </si>
   <si>
     <t>Hari Subramaniam</t>
   </si>
   <si>
-    <t>2004/2005</t>
+    <t>Chloe Mcghee</t>
   </si>
   <si>
     <t>Tom Cummins</t>
@@ -640,6 +727,15 @@
     <t>David La</t>
   </si>
   <si>
+    <t>Chloe McGhee</t>
+  </si>
+  <si>
+    <t>Paige Hansen</t>
+  </si>
+  <si>
+    <t>Celine Belegarda</t>
+  </si>
+  <si>
     <t>Jacob Osborne</t>
   </si>
   <si>
@@ -664,18 +760,12 @@
     <t>Walter Lam</t>
   </si>
   <si>
-    <t>2005/2006</t>
-  </si>
-  <si>
     <t>Kevin Wong</t>
   </si>
   <si>
     <t>Michael Wu</t>
   </si>
   <si>
-    <t>2006/2007</t>
-  </si>
-  <si>
     <t>Brad Jacobs</t>
   </si>
   <si>
@@ -694,6 +784,15 @@
     <t>Kian Banks</t>
   </si>
   <si>
+    <t>Oustanding Track</t>
+  </si>
+  <si>
+    <t>Oustanding Frosh</t>
+  </si>
+  <si>
+    <t>MPV</t>
+  </si>
+  <si>
     <t>Trevor Teerlink</t>
   </si>
   <si>
@@ -709,15 +808,15 @@
     <t>Brandon Oliveri-O'Conner</t>
   </si>
   <si>
-    <t>Nicole Sabes</t>
-  </si>
-  <si>
     <t>Andrew Wong</t>
   </si>
   <si>
     <t>Eric Chuang</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1x8PwC-Xmkkpezi3HPqVmhNgC694HDsxH/view</t>
+  </si>
+  <si>
     <t>Garrick Chan</t>
   </si>
   <si>
@@ -730,9 +829,6 @@
     <t>Steven Sum</t>
   </si>
   <si>
-    <t>Rachel Sabes</t>
-  </si>
-  <si>
     <t>Benjamin Glasstone</t>
   </si>
   <si>
@@ -772,36 +868,12 @@
     <t>None given</t>
   </si>
   <si>
-    <t>Ailene Nguyen</t>
-  </si>
-  <si>
-    <t>Danielle Conway</t>
-  </si>
-  <si>
-    <t>Karen Wai</t>
-  </si>
-  <si>
-    <t>Courtney Schlossareck</t>
-  </si>
-  <si>
-    <t>Karen Wei</t>
-  </si>
-  <si>
-    <t>Crystal Yen</t>
-  </si>
-  <si>
-    <t>Michelle Cummins</t>
-  </si>
-  <si>
-    <t>Melodie Bellegarda</t>
+    <t>Lindsay Black</t>
   </si>
   <si>
     <t>none given</t>
   </si>
   <si>
-    <t>Maya Nag</t>
-  </si>
-  <si>
     <t>2017-2018</t>
   </si>
   <si>
@@ -811,6 +883,9 @@
     <t>Kole Tippetts</t>
   </si>
   <si>
+    <t>Melissa Hult</t>
+  </si>
+  <si>
     <t>None Given</t>
   </si>
   <si>
@@ -821,81 +896,6 @@
   </si>
   <si>
     <t>Shivam Verma</t>
-  </si>
-  <si>
-    <t>Elaine Chou</t>
-  </si>
-  <si>
-    <t>Hannah Johnson</t>
-  </si>
-  <si>
-    <t>Katherine Cummins</t>
-  </si>
-  <si>
-    <t>Jennifer Jin</t>
-  </si>
-  <si>
-    <t>Puck de Roos</t>
-  </si>
-  <si>
-    <t>Kimberly Chen</t>
-  </si>
-  <si>
-    <t>Katie Davenport</t>
-  </si>
-  <si>
-    <t>Julia Lee</t>
-  </si>
-  <si>
-    <t>Laura Cummins</t>
-  </si>
-  <si>
-    <t>Avery Gigoux</t>
-  </si>
-  <si>
-    <t>Lauren M. Lin</t>
-  </si>
-  <si>
-    <t>Oustanding Track</t>
-  </si>
-  <si>
-    <t>Julia Sakamoto</t>
-  </si>
-  <si>
-    <t>Riley Carter</t>
-  </si>
-  <si>
-    <t>Kimberly chen</t>
-  </si>
-  <si>
-    <t>Preethi Ravi</t>
-  </si>
-  <si>
-    <t>Chloe Mcghee</t>
-  </si>
-  <si>
-    <t>Oustanding Frosh</t>
-  </si>
-  <si>
-    <t>MPV</t>
-  </si>
-  <si>
-    <t>Chloe McGhee</t>
-  </si>
-  <si>
-    <t>Paige Hansen</t>
-  </si>
-  <si>
-    <t>Celine Belegarda</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1x8PwC-Xmkkpezi3HPqVmhNgC694HDsxH/view</t>
-  </si>
-  <si>
-    <t>Lindsay Black</t>
-  </si>
-  <si>
-    <t>Melissa Hult</t>
   </si>
   <si>
     <t xml:space="preserve">Jill Moon </t>
@@ -1053,9 +1053,6 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1063,28 +1060,31 @@
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
@@ -1093,10 +1093,13 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
@@ -1105,9 +1108,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1176,1007 +1176,1007 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>22</v>
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="I2" s="10"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
-        <v>50</v>
+      <c r="A3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
-        <v>50</v>
+      <c r="A4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
+      <c r="A5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
+      <c r="C23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
+      <c r="C25" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7"/>
+      <c r="C26" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6"/>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="6"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="6"/>
-      <c r="C26" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>120</v>
+      <c r="C28" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>126</v>
+        <v>78</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" s="8" t="s">
+      <c r="A30" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="12"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="H38" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="12"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="12"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="12"/>
+      <c r="C45" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H30" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="13" t="s">
+      <c r="C46" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" s="8" t="s">
+      <c r="C47" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="12"/>
+      <c r="C49" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="12"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="C52" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="C53" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H33" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36" s="8" t="s">
+      <c r="C54" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="13"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="H38" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="13"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="13"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="13"/>
-      <c r="C45" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="13"/>
-      <c r="C49" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="13"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>221</v>
+      <c r="D55" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="H56" s="8" t="s">
+      <c r="C56" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H56" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="13"/>
-      <c r="D57" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E57" s="8"/>
+      <c r="A57" s="12"/>
+      <c r="D57" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E57" s="9"/>
     </row>
     <row r="58">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E58" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="16" t="s">
+      <c r="B59" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="F60" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="18"/>
+      <c r="G61" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D60" s="8"/>
-      <c r="F60" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="16"/>
-      <c r="G61" s="8" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="62">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="18"/>
+      <c r="D63" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="18"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E66" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="16"/>
-      <c r="D63" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="H64" s="8" t="s">
+      <c r="F66" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="18"/>
+      <c r="F67" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="16"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="16"/>
-      <c r="F67" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>251</v>
+      <c r="B69" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="8" t="s">
-        <v>260</v>
+      <c r="A70" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="9" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>260</v>
+      <c r="A71" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>260</v>
+      <c r="A72" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="13"/>
+      <c r="A73" s="12"/>
     </row>
     <row r="74">
       <c r="A74" s="14"/>
@@ -5119,832 +5119,832 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>14</v>
+      <c r="H1" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
+      <c r="D2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="A5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="A6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="A7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="13"/>
-      <c r="B8" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="A9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="A14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" s="14"/>
-      <c r="B24" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="B24" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="14"/>
-      <c r="B26" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="B26" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32">
       <c r="A32" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
     </row>
     <row r="33">
       <c r="A33" s="14"/>
-      <c r="B33" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="B33" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34">
       <c r="A34" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+        <v>147</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36">
       <c r="A36" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+        <v>149</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38">
       <c r="A38" s="14"/>
-      <c r="B38" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="B38" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
     </row>
     <row r="39">
       <c r="A39" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+        <v>160</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
     </row>
     <row r="40">
       <c r="A40" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="B40" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41">
       <c r="A41" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>256</v>
+      <c r="B42" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="H43" s="3"/>
+      <c r="A43" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H43" s="5"/>
     </row>
     <row r="44">
       <c r="A44" s="14"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="8"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="9"/>
     </row>
     <row r="45">
-      <c r="A45" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>252</v>
+      <c r="A45" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="14"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="H46" s="3"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H46" s="5"/>
     </row>
     <row r="47">
-      <c r="A47" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="H47" s="3"/>
+      <c r="A47" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H47" s="5"/>
     </row>
     <row r="48">
       <c r="A48" s="14"/>
       <c r="B48" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="H48" s="3"/>
+        <v>193</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="H48" s="5"/>
     </row>
     <row r="49">
-      <c r="A49" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>277</v>
+      <c r="A49" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>217</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="12" t="s">
-        <v>279</v>
+        <v>208</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="14"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
     </row>
     <row r="51">
-      <c r="A51" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="12" t="s">
-        <v>284</v>
+      <c r="A51" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="11" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="14"/>
-      <c r="F52" s="8" t="s">
-        <v>285</v>
+      <c r="F52" s="9" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>282</v>
+      <c r="A53" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="17" t="s">
-        <v>89</v>
+      <c r="A54" s="16" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="17" t="s">
-        <v>90</v>
+      <c r="A55" s="16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="17" t="s">
-        <v>92</v>
+      <c r="A56" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="57">
@@ -8871,525 +8871,525 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="B2" s="10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12">
+      <c r="B5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="11">
         <v>0.0</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="F5" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="12"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="11">
         <v>0.0</v>
       </c>
-      <c r="F5" s="12">
+      <c r="E8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="11">
         <v>0.0</v>
       </c>
-      <c r="G5" s="12">
+      <c r="D12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="11">
         <v>0.0</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="13"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="F12" s="11">
         <v>0.0</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
+      <c r="G12" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="B14" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="13"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>90</v>
+      <c r="A16" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>92</v>
+      <c r="A17" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -9412,1130 +9412,1130 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
+      <c r="B2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="13" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="12"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="13"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="13"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="13"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="A18" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
+      <c r="A19" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="6"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="12" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="12"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="12"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="13"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="13"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12" t="s">
+      <c r="G32" s="11"/>
+      <c r="H32" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="8" t="s">
+      <c r="A33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="9" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="s">
-        <v>89</v>
+      <c r="A34" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="s">
-        <v>90</v>
+      <c r="A35" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="s">
-        <v>92</v>
+      <c r="A36" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
